--- a/outputs-r202/f__UBA1407_train.xlsx
+++ b/outputs-r202/f__UBA1407_train.xlsx
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_12.fasta</t>
+          <t>RS_GCF_900769285.1_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -849,7 +849,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_14.fasta</t>
+          <t>RS_GCF_900769285.1_10.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -888,7 +888,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_18.fasta</t>
+          <t>RS_GCF_900769285.1_15.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -927,7 +927,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_4.fasta</t>
+          <t>RS_GCF_900769285.1_3.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -966,35 +966,35 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_7.fasta</t>
+          <t>RS_GCF_900769285.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9603987590038382</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03960124099602862</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9603987590038382</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_8.fasta</t>
+          <t>RS_GCF_900769285.1_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1044,7 +1044,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_19.fasta</t>
+          <t>RS_GCF_900769285.1_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1083,7 +1083,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_2.fasta</t>
+          <t>RS_GCF_900769285.1_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1122,7 +1122,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_9.fasta</t>
+          <t>RS_GCF_900769285.1_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1161,7 +1161,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_11.fasta</t>
+          <t>RS_GCF_900769285.1_5.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1200,7 +1200,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_13.fasta</t>
+          <t>RS_GCF_900769285.1_6.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1239,7 +1239,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_16.fasta</t>
+          <t>RS_GCF_900769285.1_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1278,7 +1278,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_17.fasta</t>
+          <t>RS_GCF_900769285.1_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1317,7 +1317,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_5.fasta</t>
+          <t>RS_GCF_900769285.1_9.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1356,7 +1356,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_6.fasta</t>
+          <t>RS_GCF_900769285.1_12.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1395,7 +1395,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_0.fasta</t>
+          <t>RS_GCF_900769285.1_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1434,7 +1434,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_1.fasta</t>
+          <t>RS_GCF_900769285.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1473,7 +1473,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_10.fasta</t>
+          <t>RS_GCF_900769285.1_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1512,35 +1512,35 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_15.fasta</t>
+          <t>RS_GCF_900769285.1_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.9603987590038382</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.03960124099602862</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.9603987590038382</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_3.fasta</t>
+          <t>RS_GCF_900769285.1_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1939,7 +1939,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
+          <t>GB_GCA_902783355.1_2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1978,7 +1978,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
+          <t>GB_GCA_902783355.1_6.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2017,7 +2017,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
+          <t>GB_GCA_902783355.1_11.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2056,7 +2056,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
+          <t>GB_GCA_902783355.1_12.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2095,7 +2095,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
+          <t>GB_GCA_902783355.1_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2134,35 +2134,35 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1162973784632189</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1859183507574685</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1162973784632187</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1162973784632187</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1162973784632187</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1859183507574685</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
+          <t>GB_GCA_902783355.1_13.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2212,7 +2212,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_0.fasta</t>
+          <t>GB_GCA_902783355.1_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2251,7 +2251,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_13.fasta</t>
+          <t>GB_GCA_902783355.1_15.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2290,7 +2290,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_14.fasta</t>
+          <t>GB_GCA_902783355.1_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2329,7 +2329,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_15.fasta</t>
+          <t>GB_GCA_902783355.1_4.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2368,35 +2368,35 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_17.fasta</t>
+          <t>GB_GCA_902783355.1_5.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.05148460720013943</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_4.fasta</t>
+          <t>GB_GCA_902783355.1_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2446,35 +2446,35 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_5.fasta</t>
+          <t>GB_GCA_902783355.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05148460720013943</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9485153927997274</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9485153927997274</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_8.fasta</t>
+          <t>GB_GCA_902783355.1_10.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2524,7 +2524,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_11.fasta</t>
+          <t>GB_GCA_902783355.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2563,7 +2563,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_12.fasta</t>
+          <t>GB_GCA_902783355.1_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2602,7 +2602,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_16.fasta</t>
+          <t>GB_GCA_902783355.1_3.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2641,35 +2641,35 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_2.fasta</t>
+          <t>GB_GCA_902783355.1_7.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.1162973784632189</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_6.fasta</t>
+          <t>GB_GCA_902783355.1_9.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2990,7 +2990,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_11.fasta</t>
+          <t>GB_GCA_012799725.1_10.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3029,7 +3029,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_14.fasta</t>
+          <t>GB_GCA_012799725.1_12.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3068,7 +3068,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_2.fasta</t>
+          <t>GB_GCA_012799725.1_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3107,7 +3107,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_10.fasta</t>
+          <t>GB_GCA_012800625.1_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3146,7 +3146,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_7.fasta</t>
+          <t>GB_GCA_012800625.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3185,7 +3185,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_1.fasta</t>
+          <t>GB_GCA_012799725.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3224,7 +3224,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_16.fasta</t>
+          <t>GB_GCA_012799725.1_15.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3263,7 +3263,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_14.fasta</t>
+          <t>GB_GCA_012799725.1_3.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3302,7 +3302,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_18.fasta</t>
+          <t>GB_GCA_012799725.1_5.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3341,7 +3341,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_3.fasta</t>
+          <t>GB_GCA_012800625.1_16.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3380,7 +3380,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_13.fasta</t>
+          <t>GB_GCA_012800625.1_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3419,7 +3419,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_19.fasta</t>
+          <t>GB_GCA_012800625.1_5.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3458,7 +3458,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_6.fasta</t>
+          <t>GB_GCA_012799725.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3497,7 +3497,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_0.fasta</t>
+          <t>GB_GCA_012799725.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3536,7 +3536,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_12.fasta</t>
+          <t>GB_GCA_012799725.1_6.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3575,7 +3575,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_17.fasta</t>
+          <t>GB_GCA_012800625.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3614,7 +3614,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_19.fasta</t>
+          <t>GB_GCA_012800625.1_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3653,7 +3653,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_8.fasta</t>
+          <t>GB_GCA_012800625.1_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3692,7 +3692,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_0.fasta</t>
+          <t>GB_GCA_012800625.1_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3731,7 +3731,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_15.fasta</t>
+          <t>GB_GCA_012800625.1_8.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3770,7 +3770,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_3.fasta</t>
+          <t>GB_GCA_012799725.1_1.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3809,7 +3809,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_5.fasta</t>
+          <t>GB_GCA_012799725.1_16.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3848,7 +3848,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_16.fasta</t>
+          <t>GB_GCA_012800625.1_14.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3887,7 +3887,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_4.fasta</t>
+          <t>GB_GCA_012800625.1_18.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3926,7 +3926,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_5.fasta</t>
+          <t>GB_GCA_012800625.1_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3965,7 +3965,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_10.fasta</t>
+          <t>GB_GCA_012799725.1_11.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4004,7 +4004,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_12.fasta</t>
+          <t>GB_GCA_012799725.1_14.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4043,7 +4043,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_4.fasta</t>
+          <t>GB_GCA_012799725.1_2.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4082,7 +4082,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_11.fasta</t>
+          <t>GB_GCA_012800625.1_10.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4121,7 +4121,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_13.fasta</t>
+          <t>GB_GCA_012800625.1_7.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4470,7 +4470,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_10.fasta</t>
+          <t>GB_GCA_012515455.1_18.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4509,7 +4509,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_0.fasta</t>
+          <t>GB_GCA_012515455.1_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4548,7 +4548,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_15.fasta</t>
+          <t>GB_GCA_012800565.1_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4587,7 +4587,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_17.fasta</t>
+          <t>GB_GCA_012800565.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4626,7 +4626,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_4.fasta</t>
+          <t>GB_GCA_012800565.1_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4665,7 +4665,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_6.fasta</t>
+          <t>GB_GCA_012515455.1_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4704,7 +4704,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_1.fasta</t>
+          <t>GB_GCA_012515455.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4743,7 +4743,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_12.fasta</t>
+          <t>GB_GCA_012515455.1_7.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4782,46 +4782,46 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_10.fasta</t>
+          <t>GB_GCA_012515455.1_9.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5036922931707837</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4963077068267802</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.060454987438847e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5036922931707837</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZIZ01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_12.fasta</t>
+          <t>GB_GCA_012800565.1_5.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4860,7 +4860,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_14.fasta</t>
+          <t>GB_GCA_012800565.1_9.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4899,7 +4899,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_19.fasta</t>
+          <t>GB_GCA_012515455.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4938,7 +4938,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_13.fasta</t>
+          <t>GB_GCA_012515455.1_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4977,7 +4977,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_15.fasta</t>
+          <t>GB_GCA_012515455.1_19.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5016,7 +5016,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_19.fasta</t>
+          <t>GB_GCA_012515455.1_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5055,7 +5055,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_5.fasta</t>
+          <t>GB_GCA_012515455.1_6.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5094,7 +5094,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_6.fasta</t>
+          <t>GB_GCA_012800565.1_11.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5133,7 +5133,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_11.fasta</t>
+          <t>GB_GCA_012800565.1_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5172,7 +5172,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_16.fasta</t>
+          <t>GB_GCA_012515455.1_1.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5211,7 +5211,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_0.fasta</t>
+          <t>GB_GCA_012515455.1_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5250,46 +5250,46 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_11.fasta</t>
+          <t>GB_GCA_012800565.1_10.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5036922931707837</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.4963077068267802</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.060454987438847e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.5036922931707837</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>g__JAAZIZ01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_7.fasta</t>
+          <t>GB_GCA_012800565.1_12.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5328,7 +5328,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_9.fasta</t>
+          <t>GB_GCA_012800565.1_14.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5367,7 +5367,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_5.fasta</t>
+          <t>GB_GCA_012800565.1_19.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5406,7 +5406,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_9.fasta</t>
+          <t>GB_GCA_012515455.1_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5445,7 +5445,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_18.fasta</t>
+          <t>GB_GCA_012800565.1_0.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5484,7 +5484,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_4.fasta</t>
+          <t>GB_GCA_012800565.1_15.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5523,7 +5523,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_1.fasta</t>
+          <t>GB_GCA_012800565.1_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5562,7 +5562,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_13.fasta</t>
+          <t>GB_GCA_012800565.1_4.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5601,7 +5601,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_8.fasta</t>
+          <t>GB_GCA_012800565.1_6.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5833,7 +5833,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_12.fasta</t>
+          <t>GB_GCA_002070945.1_19.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5872,7 +5872,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_12.fasta</t>
+          <t>GB_GCA_002070945.1_2.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5911,7 +5911,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_3.fasta</t>
+          <t>GB_GCA_002070945.1_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5950,7 +5950,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_10.fasta</t>
+          <t>GB_GCA_002070945.1_9.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5989,46 +5989,46 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_11.fasta</t>
+          <t>GB_GCA_012799905.1_10.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.021137288266286e-14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.021137288266286e-14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2584514043348677</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.250082591776973</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2584514043348678</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.021137288266285e-14</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2330145995530906</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.021137288266285e-14</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2584514043348678</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_13.fasta</t>
+          <t>GB_GCA_012799905.1_17.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6067,7 +6067,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_7.fasta</t>
+          <t>GB_GCA_012799905.1_2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6106,7 +6106,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_4.fasta</t>
+          <t>GB_GCA_012799905.1_5.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6145,7 +6145,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_15.fasta</t>
+          <t>GB_GCA_012799905.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6184,7 +6184,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_5.fasta</t>
+          <t>GB_GCA_002070945.1_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6223,7 +6223,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_8.fasta</t>
+          <t>GB_GCA_002070945.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6262,7 +6262,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_15.fasta</t>
+          <t>GB_GCA_002070945.1_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6301,35 +6301,35 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_6.fasta</t>
+          <t>GB_GCA_002070945.1_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.9277036220277903</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.220019779125473e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.07229637797207651</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.9277036220277903</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_14.fasta</t>
+          <t>GB_GCA_012799905.1_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6379,7 +6379,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_18.fasta</t>
+          <t>GB_GCA_012799905.1_18.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6418,7 +6418,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_3.fasta</t>
+          <t>GB_GCA_012799905.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -6457,35 +6457,35 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_6.fasta</t>
+          <t>GB_GCA_012799905.1_9.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9277036220277903</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.220019779125473e-14</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07229637797207651</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9277036220277903</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_11.fasta</t>
+          <t>GB_GCA_002070945.1_15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6535,7 +6535,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_18.fasta</t>
+          <t>GB_GCA_002070945.1_5.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -6574,7 +6574,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_19.fasta</t>
+          <t>GB_GCA_002070945.1_8.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -6613,7 +6613,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_9.fasta</t>
+          <t>GB_GCA_012799905.1_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -6652,7 +6652,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_19.fasta</t>
+          <t>GB_GCA_012799905.1_6.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -6691,7 +6691,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_2.fasta</t>
+          <t>GB_GCA_002070945.1_10.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6730,46 +6730,46 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_4.fasta</t>
+          <t>GB_GCA_002070945.1_11.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.021137288266286e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5.021137288266286e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.2584514043348677</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.250082591776973</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.2584514043348678</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.021137288266285e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.2330145995530906</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.021137288266285e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.2584514043348678</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>g__JAAZKI01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_9.fasta</t>
+          <t>GB_GCA_002070945.1_13.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6808,7 +6808,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_10.fasta</t>
+          <t>GB_GCA_002070945.1_7.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -6847,7 +6847,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_17.fasta</t>
+          <t>GB_GCA_012799905.1_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6886,7 +6886,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_2.fasta</t>
+          <t>GB_GCA_002070945.1_12.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6925,7 +6925,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_5.fasta</t>
+          <t>GB_GCA_012799905.1_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6964,7 +6964,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_7.fasta</t>
+          <t>GB_GCA_012799905.1_3.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7196,7 +7196,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_0.fasta</t>
+          <t>GB_GCA_012799755.1_11.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7235,7 +7235,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_17.fasta</t>
+          <t>GB_GCA_012799755.1_15.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7274,7 +7274,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_19.fasta</t>
+          <t>GB_GCA_012799755.1_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -7313,7 +7313,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_1.fasta</t>
+          <t>GB_GCA_012799755.1_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7352,7 +7352,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_16.fasta</t>
+          <t>GB_GCA_012799755.1_6.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7391,7 +7391,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_5.fasta</t>
+          <t>GB_GCA_012799755.1_10.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7430,7 +7430,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_12.fasta</t>
+          <t>GB_GCA_012799755.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7469,7 +7469,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_18.fasta</t>
+          <t>GB_GCA_012799755.1_14.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7508,7 +7508,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_3.fasta</t>
+          <t>GB_GCA_012799755.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7547,7 +7547,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_8.fasta</t>
+          <t>GB_GCA_012799755.1_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7586,7 +7586,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_10.fasta</t>
+          <t>GB_GCA_012799755.1_12.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7625,7 +7625,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_13.fasta</t>
+          <t>GB_GCA_012799755.1_18.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7664,7 +7664,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_14.fasta</t>
+          <t>GB_GCA_012799755.1_3.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7703,7 +7703,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_7.fasta</t>
+          <t>GB_GCA_012799755.1_8.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7742,7 +7742,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_9.fasta</t>
+          <t>GB_GCA_012799755.1_1.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7781,7 +7781,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_11.fasta</t>
+          <t>GB_GCA_012799755.1_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7820,7 +7820,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_15.fasta</t>
+          <t>GB_GCA_012799755.1_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -7859,7 +7859,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_2.fasta</t>
+          <t>GB_GCA_012799755.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7898,7 +7898,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_4.fasta</t>
+          <t>GB_GCA_012799755.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -7937,7 +7937,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_6.fasta</t>
+          <t>GB_GCA_012799755.1_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8286,7 +8286,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
+          <t>GB_GCA_002305655.1_16.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8325,7 +8325,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
+          <t>GB_GCA_002305655.1_18.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8364,7 +8364,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
+          <t>GB_GCA_002305655.1_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8403,7 +8403,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
+          <t>GB_GCA_002305655.1_6.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8442,35 +8442,35 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
+          <t>GB_GCA_902776645.1_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03960124099602867</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9603987590038381</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9603987590038381</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
+          <t>GB_GCA_902776645.1_18.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -8520,7 +8520,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_1.fasta</t>
+          <t>GB_GCA_002305655.1_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8559,7 +8559,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_13.fasta</t>
+          <t>GB_GCA_002305655.1_14.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8598,7 +8598,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_3.fasta</t>
+          <t>GB_GCA_902776645.1_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8637,35 +8637,35 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_16.fasta</t>
+          <t>GB_GCA_902776645.1_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8715,35 +8715,35 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_3.fasta</t>
+          <t>GB_GCA_902776645.1_8.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_7.fasta</t>
+          <t>GB_GCA_002305655.1_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8793,7 +8793,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_9.fasta</t>
+          <t>GB_GCA_002305655.1_17.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8832,7 +8832,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_12.fasta</t>
+          <t>GB_GCA_002305655.1_8.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8871,7 +8871,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_17.fasta</t>
+          <t>GB_GCA_902776645.1_4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8910,7 +8910,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_8.fasta</t>
+          <t>GB_GCA_002305655.1_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8949,7 +8949,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_4.fasta</t>
+          <t>GB_GCA_002305655.1_13.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -8988,7 +8988,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_10.fasta</t>
+          <t>GB_GCA_002305655.1_3.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -9027,35 +9027,35 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_14.fasta</t>
+          <t>GB_GCA_902776645.1_16.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_13.fasta</t>
+          <t>GB_GCA_902776645.1_2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -9105,35 +9105,35 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_14.fasta</t>
+          <t>GB_GCA_902776645.1_3.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_19.fasta</t>
+          <t>GB_GCA_902776645.1_7.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -9183,7 +9183,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_8.fasta</t>
+          <t>GB_GCA_902776645.1_9.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -9222,7 +9222,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_16.fasta</t>
+          <t>GB_GCA_002305655.1_0.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -9261,7 +9261,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_18.fasta</t>
+          <t>GB_GCA_002305655.1_11.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -9300,7 +9300,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_0.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -9339,7 +9339,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_6.fasta</t>
+          <t>GB_GCA_902776645.1_10.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -9378,35 +9378,35 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_1.fasta</t>
+          <t>GB_GCA_902776645.1_12.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.03960124099602867</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.9603987590038381</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.9603987590038381</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_18.fasta</t>
+          <t>GB_GCA_902776645.1_17.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -9653,31 +9653,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.08125261211651916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -9731,31 +9731,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.05148460720013947</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>GB_GCA_002315885.1_5.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9805,7 +9805,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
+          <t>GB_GCA_002315885.1_6.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9844,7 +9844,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
+          <t>GB_GCA_900548225.1_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9883,7 +9883,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
+          <t>GB_GCA_900548225.1_2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -9922,7 +9922,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
+          <t>GB_GCA_900548225.1_5.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9961,7 +9961,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
+          <t>RS_GCF_900771165.1_10.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -10000,7 +10000,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_1.fasta</t>
+          <t>GB_GCA_002315885.1_17.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -10039,7 +10039,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -10078,7 +10078,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_18.fasta</t>
+          <t>GB_GCA_002315885.1_7.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10117,7 +10117,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_12.fasta</t>
+          <t>GB_GCA_900548225.1_7.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10156,7 +10156,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_11.fasta</t>
+          <t>GB_GCA_900548225.1_8.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10195,7 +10195,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_13.fasta</t>
+          <t>RS_GCF_900771165.1_7.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10234,7 +10234,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_19.fasta</t>
+          <t>GB_GCA_002315885.1_11.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10273,7 +10273,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_2.fasta</t>
+          <t>GB_GCA_002315885.1_13.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10312,7 +10312,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_19.fasta</t>
+          <t>GB_GCA_002315885.1_19.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10351,7 +10351,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_14.fasta</t>
+          <t>GB_GCA_002315885.1_2.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -10390,7 +10390,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_16.fasta</t>
+          <t>GB_GCA_900548225.1_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -10429,7 +10429,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_4.fasta</t>
+          <t>RS_GCF_900771165.1_14.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -10468,7 +10468,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_17.fasta</t>
+          <t>RS_GCF_900771165.1_16.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -10507,7 +10507,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_18.fasta</t>
+          <t>RS_GCF_900771165.1_4.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10546,7 +10546,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_7.fasta</t>
+          <t>GB_GCA_002315885.1_1.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10585,7 +10585,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_7.fasta</t>
+          <t>GB_GCA_900548225.1_0.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10624,7 +10624,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_8.fasta</t>
+          <t>GB_GCA_900548225.1_18.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -10663,7 +10663,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_7.fasta</t>
+          <t>RS_GCF_900771165.1_12.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -10702,7 +10702,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_5.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -10741,7 +10741,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_6.fasta</t>
+          <t>GB_GCA_002315885.1_8.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -10780,7 +10780,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_11.fasta</t>
+          <t>GB_GCA_002315885.1_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -10819,35 +10819,35 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_2.fasta</t>
+          <t>GB_GCA_900548225.1_14.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.08125261211651916</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_5.fasta</t>
+          <t>RS_GCF_900771165.1_13.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -10897,35 +10897,35 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_10.fasta</t>
+          <t>RS_GCF_900771165.1_2.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.05148460720013947</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>

--- a/outputs-r202/f__UBA1407_train.xlsx
+++ b/outputs-r202/f__UBA1407_train.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="g__CAAGGB01-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="g__CACZQQ01-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="g__JAAZIY01-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="g__JAAZIZ01-b-p" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="g__JAAZKI01-b-p" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="g__JAAZKQ01-b-p" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="g__UBA1407-b-p" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="g__UBA1724-b-p" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="g__JAAZIY01-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__JAAZIZ01-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__JAAZKI01-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__JAAZKQ01-b-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__UBA1407-b-p" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__UBA1724-b-p" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="g__CACZQQ01-b-p" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -564,12 +564,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -603,8 +603,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -642,8 +644,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -681,8 +685,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -720,8 +726,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -759,8 +767,10 @@
       <c r="I6" t="n">
         <v>2.219971611394599e-14</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.9603987590038382</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -798,8 +808,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -837,8 +849,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -876,8 +890,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -915,8 +931,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -954,8 +972,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -993,8 +1013,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1032,8 +1054,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1071,8 +1095,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1110,8 +1136,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1149,8 +1177,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1188,8 +1218,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1227,8 +1259,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1266,8 +1300,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1305,8 +1341,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1344,8 +1382,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1383,8 +1423,10 @@
       <c r="I22" t="n">
         <v>2.219971611394599e-14</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.9603987590038382</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1422,8 +1464,10 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1437,1057 +1481,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1162973784632189</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1859183507574685</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1859183507574685</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_11.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_12.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_16.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_14.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_15.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_4.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_5.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.05148460720013943</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.1162973784632189</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1859183507574685</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1162973784632188</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1162973784632187</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.1859183507574685</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2549,12 +1542,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -2588,8 +1581,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -2627,8 +1622,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -2666,8 +1663,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -2705,8 +1704,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2744,8 +1745,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -2783,8 +1786,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -2822,8 +1827,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2861,8 +1868,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2900,8 +1909,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2939,8 +1950,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2978,8 +1991,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3017,8 +2032,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -3056,8 +2073,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -3095,8 +2114,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3134,8 +2155,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3173,8 +2196,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3212,8 +2237,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3251,8 +2278,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3290,8 +2319,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -3329,8 +2360,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -3368,8 +2401,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -3407,8 +2442,10 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -3446,8 +2483,10 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -3485,8 +2524,10 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -3524,8 +2565,10 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -3563,8 +2606,10 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -3602,8 +2647,10 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -3641,8 +2688,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3680,8 +2729,10 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3719,8 +2770,10 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3733,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3795,12 +2848,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -3834,8 +2887,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -3873,8 +2928,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -3912,8 +2969,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -3951,8 +3010,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -3990,8 +3051,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4029,8 +3092,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4068,8 +3133,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4107,8 +3174,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4146,8 +3215,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4185,8 +3256,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4224,8 +3297,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4263,8 +3338,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4302,8 +3379,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4341,8 +3420,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4380,8 +3461,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4419,8 +3502,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4458,8 +3543,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4497,8 +3584,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4536,8 +3625,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4575,8 +3666,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4614,8 +3707,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -4653,12 +3748,14 @@
       <c r="I23" t="n">
         <v>4.060454987438847e-13</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.5036922931707837</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZIZ01</t>
         </is>
       </c>
     </row>
@@ -4692,8 +3789,10 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4731,8 +3830,10 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -4770,8 +3871,10 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -4809,8 +3912,10 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -4848,8 +3953,10 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -4887,8 +3994,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -4926,8 +4035,10 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -4965,8 +4076,10 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -5004,8 +4117,10 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -5018,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5080,12 +4195,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5119,8 +4234,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -5158,8 +4275,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5197,8 +4316,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5236,8 +4357,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5275,8 +4398,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5314,8 +4439,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5353,8 +4480,10 @@
       <c r="I8" t="n">
         <v>0.07229637797207651</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.9277036220277903</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5392,8 +4521,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5431,8 +4562,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5470,8 +4603,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5509,8 +4644,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5548,8 +4685,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5587,8 +4726,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -5626,8 +4767,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -5665,8 +4808,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5704,8 +4849,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5743,8 +4890,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -5782,12 +4931,14 @@
       <c r="I19" t="n">
         <v>5.021137288266285e-14</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.2584514043348678</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
     </row>
@@ -5821,8 +4972,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -5860,8 +5013,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -5899,8 +5054,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5938,8 +5095,10 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5977,8 +5136,10 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -6016,8 +5177,10 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -6030,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6092,12 +5255,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -6131,8 +5294,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -6170,8 +5335,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6209,8 +5376,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6248,8 +5417,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6287,8 +5458,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6326,8 +5499,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6365,8 +5540,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -6404,8 +5581,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -6443,8 +5622,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -6482,8 +5663,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -6521,8 +5704,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -6560,8 +5745,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -6599,8 +5786,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -6638,8 +5827,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -6677,8 +5868,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -6716,8 +5909,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -6755,8 +5950,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -6794,12 +5991,1320 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>g__JAAZKQ01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_12.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03960124099602867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9603987590038381</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_12.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2287370012597198</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_2.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1101804283914685</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2287370012597198</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_7.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305655.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_12.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03960124099602867</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9603987590038381</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902776645.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
@@ -6870,19 +7375,19 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6904,24 +7409,26 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
+          <t>GB_GCA_002315885.1_8.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6943,24 +7450,26 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_9.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6982,141 +7491,149 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
+          <t>GB_GCA_900548225.1_14.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.08125261211651916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
+          <t>RS_GCF_900771165.1_13.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03960124099602867</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9603987590038381</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9603987590038381</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
+          <t>RS_GCF_900771165.1_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.05148460720013947</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_10.fasta</t>
+          <t>GB_GCA_002315885.1_17.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7138,24 +7655,26 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_14.fasta</t>
+          <t>GB_GCA_002315885.1_18.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7177,24 +7696,26 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_13.fasta</t>
+          <t>GB_GCA_002315885.1_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7216,24 +7737,26 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_14.fasta</t>
+          <t>GB_GCA_900548225.1_7.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7255,24 +7778,26 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7294,24 +7819,26 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_8.fasta</t>
+          <t>RS_GCF_900771165.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7333,24 +7860,26 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_12.fasta</t>
+          <t>GB_GCA_002315885.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7372,24 +7901,26 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_17.fasta</t>
+          <t>GB_GCA_002315885.1_13.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7411,24 +7942,26 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_8.fasta</t>
+          <t>GB_GCA_002315885.1_19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7450,24 +7983,26 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_4.fasta</t>
+          <t>GB_GCA_002315885.1_2.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7489,24 +8024,26 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_1.fasta</t>
+          <t>GB_GCA_900548225.1_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7528,24 +8065,26 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_13.fasta</t>
+          <t>RS_GCF_900771165.1_14.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7567,24 +8106,26 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_3.fasta</t>
+          <t>RS_GCF_900771165.1_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7606,63 +8147,67 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_16.fasta</t>
+          <t>RS_GCF_900771165.1_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2287370012597198</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_2.fasta</t>
+          <t>GB_GCA_002315885.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7684,63 +8229,67 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_3.fasta</t>
+          <t>GB_GCA_900548225.1_0.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1101804283914685</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1101804283914686</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2287370012597198</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.2287370012597198</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_7.fasta</t>
+          <t>GB_GCA_900548225.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7762,24 +8311,26 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_9.fasta</t>
+          <t>RS_GCF_900771165.1_12.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -7801,24 +8352,26 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7840,24 +8393,26 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
+          <t>GB_GCA_002315885.1_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7879,24 +8434,26 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_9.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7918,134 +8475,142 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
+          <t>GB_GCA_900548225.1_14.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.08125261211651916</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
+          <t>RS_GCF_900771165.1_13.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03960124099602867</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.219971611394599e-14</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9603987590038381</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9603987590038381</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
+          <t>RS_GCF_900771165.1_2.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.05148460720013947</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>g__UBA1407</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8128,14 +8693,14 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>GB_GCA_902783355.1_1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8153,28 +8718,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
+          <t>GB_GCA_902783355.1_10.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8192,28 +8757,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
+          <t>GB_GCA_902783355.1_18.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8231,67 +8796,67 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
+          <t>GB_GCA_902783355.1_19.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08125261211651916</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9187473878833476</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9187473878833476</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
+          <t>GB_GCA_902783355.1_3.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8309,67 +8874,67 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
+          <t>GB_GCA_902783355.1_7.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1162973784632189</v>
       </c>
       <c r="C7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="D7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="E7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="F7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05148460720013947</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="H7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9485153927997274</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9485153927997274</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_17.fasta</t>
+          <t>GB_GCA_902783355.1_9.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8387,28 +8952,28 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_18.fasta</t>
+          <t>GB_GCA_902783355.1_11.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8426,28 +8991,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_12.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8465,28 +9030,28 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_16.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8504,28 +9069,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_8.fasta</t>
+          <t>GB_GCA_902783355.1_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8543,28 +9108,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_13.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8582,28 +9147,28 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_11.fasta</t>
+          <t>GB_GCA_902783355.1_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8621,28 +9186,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_13.fasta</t>
+          <t>GB_GCA_902783355.1_15.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8660,28 +9225,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_19.fasta</t>
+          <t>GB_GCA_902783355.1_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8699,28 +9264,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_2.fasta</t>
+          <t>GB_GCA_902783355.1_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8738,67 +9303,67 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_19.fasta</t>
+          <t>GB_GCA_902783355.1_5.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.05148460720013943</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_14.fasta</t>
+          <t>GB_GCA_902783355.1_8.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8816,28 +9381,28 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_16.fasta</t>
+          <t>GB_GCA_902783355.1_1.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8855,28 +9420,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_4.fasta</t>
+          <t>GB_GCA_902783355.1_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8894,28 +9459,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_1.fasta</t>
+          <t>GB_GCA_902783355.1_18.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8933,28 +9498,28 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_0.fasta</t>
+          <t>GB_GCA_902783355.1_19.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -8972,28 +9537,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_18.fasta</t>
+          <t>GB_GCA_902783355.1_3.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -9011,67 +9576,67 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_12.fasta</t>
+          <t>GB_GCA_902783355.1_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.1162973784632189</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.1162973784632188</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.1162973784632187</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.1859183507574685</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>GB_GCA_902783355.1_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -9089,209 +9654,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.08125261211651916</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.220013727342472e-14</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9187473878833476</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.9187473878833476</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.05148460720013947</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.219992224435667e-14</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
+          <t>g__CACZQQ01</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__UBA1407_train.xlsx
+++ b/outputs-r202/f__UBA1407_train.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="g__CAAGGB01-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="g__JAAZIY01-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="g__JAAZIZ01-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="g__JAAZKI01-b-p" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="g__JAAZKQ01-b-p" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="g__UBA1407-b-p" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="g__UBA1724-b-p" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="g__CACZQQ01-b-p" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="g__CACZQQ01-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__JAAZIY01-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__JAAZIZ01-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__JAAZKI01-b-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__JAAZKQ01-b-p" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__UBA1407-b-p" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="g__UBA1724-b-p" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -564,12 +564,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -603,10 +603,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -644,10 +642,8 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -685,10 +681,8 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -726,10 +720,8 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -767,10 +759,8 @@
       <c r="I6" t="n">
         <v>2.219971611394599e-14</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0.9603987590038382</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -808,10 +798,8 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -849,10 +837,8 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -890,10 +876,8 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -931,10 +915,8 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -972,10 +954,8 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1013,10 +993,8 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1054,10 +1032,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1095,10 +1071,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1136,10 +1110,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1177,10 +1149,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1218,10 +1188,8 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1259,10 +1227,8 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1300,10 +1266,8 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J19" t="n">
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1341,10 +1305,8 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1382,10 +1344,8 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1423,10 +1383,8 @@
       <c r="I22" t="n">
         <v>2.219971611394599e-14</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J22" t="n">
+        <v>0.9603987590038382</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1464,10 +1422,8 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
+      <c r="J23" t="n">
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1481,6 +1437,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>g__CAAGGB01</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAZKQ01</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>g__UBA1407</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_7.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1162973784632189</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1859183507574685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1859183507574685</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_12.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_0.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_15.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_5.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05148460720013943</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_7.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1162973784632189</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1859183507574685</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1162973784632188</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1162973784632187</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1859183507574685</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_902783355.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>g__CACZQQ01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,12 +2549,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1581,10 +2588,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -1622,10 +2627,8 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -1663,10 +2666,8 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1704,10 +2705,8 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1745,10 +2744,8 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1786,10 +2783,8 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1827,10 +2822,8 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1868,10 +2861,8 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1909,10 +2900,8 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1950,10 +2939,8 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1991,10 +2978,8 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2032,10 +3017,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2073,10 +3056,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2114,10 +3095,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -2155,10 +3134,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -2196,10 +3173,8 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -2237,10 +3212,8 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2278,10 +3251,8 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J19" t="n">
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2319,10 +3290,8 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2360,10 +3329,8 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2401,10 +3368,8 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J22" t="n">
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2442,10 +3407,8 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J23" t="n">
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2483,10 +3446,8 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J24" t="n">
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2524,10 +3485,8 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J25" t="n">
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2565,10 +3524,8 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J26" t="n">
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2606,10 +3563,8 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2647,10 +3602,8 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J28" t="n">
+        <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2688,10 +3641,8 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J29" t="n">
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2729,10 +3680,8 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J30" t="n">
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2770,10 +3719,8 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2786,7 +3733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2848,12 +3795,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -2887,10 +3834,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -2928,10 +3873,8 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -2969,10 +3912,8 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -3010,10 +3951,8 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -3051,10 +3990,8 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -3092,10 +4029,8 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -3133,10 +4068,8 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -3174,10 +4107,8 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -3215,10 +4146,8 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -3256,10 +4185,8 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3297,10 +4224,8 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3338,10 +4263,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -3379,10 +4302,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -3420,10 +4341,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3461,10 +4380,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3502,10 +4419,8 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3543,10 +4458,8 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3584,10 +4497,8 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J19" t="n">
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3625,10 +4536,8 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -3666,10 +4575,8 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -3707,10 +4614,8 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J22" t="n">
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -3748,14 +4653,12 @@
       <c r="I23" t="n">
         <v>4.060454987438847e-13</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0.5036922931707837</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
         </is>
       </c>
     </row>
@@ -3789,10 +4692,8 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J24" t="n">
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -3830,10 +4731,8 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J25" t="n">
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -3871,10 +4770,8 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J26" t="n">
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -3912,10 +4809,8 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -3953,10 +4848,8 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J28" t="n">
+        <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -3994,10 +4887,8 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J29" t="n">
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -4035,10 +4926,8 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J30" t="n">
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -4076,10 +4965,8 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -4117,10 +5004,8 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
+      <c r="J32" t="n">
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -4133,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4195,12 +5080,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -4234,10 +5119,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4275,10 +5158,8 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -4316,10 +5197,8 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -4357,10 +5236,8 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -4398,10 +5275,8 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -4439,10 +5314,8 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -4480,10 +5353,8 @@
       <c r="I8" t="n">
         <v>0.07229637797207651</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0.9277036220277903</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -4521,10 +5392,8 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -4562,10 +5431,8 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -4603,10 +5470,8 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -4644,10 +5509,8 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -4685,10 +5548,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -4726,10 +5587,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -4767,10 +5626,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -4808,10 +5665,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -4849,10 +5704,8 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -4890,10 +5743,8 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -4931,14 +5782,12 @@
       <c r="I19" t="n">
         <v>5.021137288266285e-14</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0.2584514043348678</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
         </is>
       </c>
     </row>
@@ -4972,10 +5821,8 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -5013,10 +5860,8 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -5054,10 +5899,8 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J22" t="n">
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -5095,10 +5938,8 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J23" t="n">
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -5136,10 +5977,8 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J24" t="n">
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -5177,10 +6016,8 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
+      <c r="J25" t="n">
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5193,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5255,12 +6092,12 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5294,10 +6131,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -5335,10 +6170,8 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5376,10 +6209,8 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5417,10 +6248,8 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5458,10 +6287,8 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5499,10 +6326,8 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5540,10 +6365,8 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5581,10 +6404,8 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5622,10 +6443,8 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5663,10 +6482,8 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5704,10 +6521,8 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -5745,10 +6560,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -5786,10 +6599,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -5827,10 +6638,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -5868,10 +6677,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5909,10 +6716,8 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5950,10 +6755,8 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -5991,1320 +6794,12 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>g__JAAZKQ01</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>g__CAAGGB01</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>g__CACZQQ01</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZKI01</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>g__JAAZKQ01</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03960124099602867</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9603987590038381</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_14.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_14.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_19.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_12.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_8.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_4.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_1.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_13.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_16.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.2287370012597198</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_2.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1101804283914685</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.2287370012597198</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.1101804283914686</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_7.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_9.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03960124099602867</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.9603987590038381</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.219971611394599e-14</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
@@ -7375,19 +6870,19 @@
       </c>
       <c r="J1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>GB_GCA_002305655.1_0.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7409,26 +6904,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
+          <t>GB_GCA_002305655.1_11.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7450,26 +6943,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
+          <t>GB_GCA_902776645.1_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7491,149 +6982,141 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
+          <t>GB_GCA_902776645.1_10.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08125261211651916</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9187473878833476</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
+          <t>GB_GCA_902776645.1_12.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.03960124099602867</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.9603987590038381</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9603987590038381</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_17.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05148460720013947</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_17.fasta</t>
+          <t>GB_GCA_002305655.1_10.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7655,26 +7138,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_18.fasta</t>
+          <t>GB_GCA_002305655.1_14.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7696,26 +7177,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_7.fasta</t>
+          <t>GB_GCA_902776645.1_13.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7737,26 +7216,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_7.fasta</t>
+          <t>GB_GCA_902776645.1_14.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7778,26 +7255,24 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_8.fasta</t>
+          <t>GB_GCA_902776645.1_19.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7819,26 +7294,24 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_7.fasta</t>
+          <t>GB_GCA_902776645.1_8.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7860,26 +7333,24 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_11.fasta</t>
+          <t>GB_GCA_002305655.1_12.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7901,26 +7372,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_13.fasta</t>
+          <t>GB_GCA_002305655.1_17.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7942,26 +7411,24 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_19.fasta</t>
+          <t>GB_GCA_002305655.1_8.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7983,26 +7450,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8024,26 +7489,24 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_19.fasta</t>
+          <t>GB_GCA_002305655.1_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8065,26 +7528,24 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_14.fasta</t>
+          <t>GB_GCA_002305655.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -8106,26 +7567,24 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_16.fasta</t>
+          <t>GB_GCA_002305655.1_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8147,67 +7606,63 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_4.fasta</t>
+          <t>GB_GCA_902776645.1_16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2287370012597198</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_1.fasta</t>
+          <t>GB_GCA_902776645.1_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8229,67 +7684,63 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_0.fasta</t>
+          <t>GB_GCA_902776645.1_3.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1101804283914685</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1101804283914686</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.2287370012597198</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0.1101804283914686</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2287370012597198</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_18.fasta</t>
+          <t>GB_GCA_902776645.1_7.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8311,26 +7762,24 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_12.fasta</t>
+          <t>GB_GCA_902776645.1_9.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -8352,26 +7801,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>GB_GCA_002305655.1_0.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -8393,26 +7840,24 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
+          <t>GB_GCA_002305655.1_11.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -8434,26 +7879,24 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
+          <t>GB_GCA_902776645.1_0.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -8475,142 +7918,134 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
+          <t>GB_GCA_902776645.1_10.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08125261211651916</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.220013727342472e-14</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9187473878833476</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
+          <t>GB_GCA_902776645.1_12.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.03960124099602867</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.219971611394599e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.9603987590038381</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>2.219971611394599e-14</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9603987590038381</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_17.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05148460720013947</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9485153927997274</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>g__UBA1724</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>g__UBA1724</t>
+          <t>g__UBA1407</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8693,14 +8128,14 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8718,28 +8153,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
+          <t>GB_GCA_002315885.1_8.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8757,28 +8192,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
+          <t>GB_GCA_002315885.1_9.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8796,67 +8231,67 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_14.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.08125261211651916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.220013727342472e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9187473878833476</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
+          <t>RS_GCF_900771165.1_13.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8874,67 +8309,67 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
+          <t>RS_GCF_900771165.1_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1162973784632189</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1859183507574685</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1162973784632188</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1162973784632188</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1162973784632188</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1162973784632187</v>
+        <v>0.05148460720013947</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1162973784632187</v>
+        <v>2.219992224435667e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1162973784632187</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1859183507574685</v>
+        <v>0.9485153927997274</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
+          <t>GB_GCA_002315885.1_17.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8952,28 +8387,28 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_11.fasta</t>
+          <t>GB_GCA_002315885.1_18.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8991,28 +8426,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_12.fasta</t>
+          <t>GB_GCA_002315885.1_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -9030,28 +8465,28 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_16.fasta</t>
+          <t>GB_GCA_900548225.1_7.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -9069,28 +8504,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_0.fasta</t>
+          <t>GB_GCA_900548225.1_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -9108,28 +8543,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_13.fasta</t>
+          <t>RS_GCF_900771165.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -9147,28 +8582,28 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_14.fasta</t>
+          <t>GB_GCA_002315885.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -9186,28 +8621,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_15.fasta</t>
+          <t>GB_GCA_002315885.1_13.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -9225,28 +8660,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_17.fasta</t>
+          <t>GB_GCA_002315885.1_19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -9264,28 +8699,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_4.fasta</t>
+          <t>GB_GCA_002315885.1_2.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -9303,67 +8738,67 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_5.fasta</t>
+          <t>GB_GCA_900548225.1_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05148460720013943</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9485153927997274</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.219992224435667e-14</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9485153927997274</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_8.fasta</t>
+          <t>RS_GCF_900771165.1_14.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9381,28 +8816,28 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
+          <t>RS_GCF_900771165.1_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9420,28 +8855,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
+          <t>RS_GCF_900771165.1_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9459,28 +8894,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
+          <t>GB_GCA_002315885.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9498,28 +8933,28 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_0.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9537,28 +8972,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
+          <t>GB_GCA_900548225.1_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -9576,67 +9011,67 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
+          <t>RS_GCF_900771165.1_12.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1162973784632189</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1859183507574685</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1162973784632188</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1162973784632187</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1162973784632187</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1162973784632187</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1859183507574685</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -9654,14 +9089,209 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>g__CACZQQ01</t>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002315885.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002315885.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548225.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08125261211651916</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.220013727342472e-14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9187473878833476</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9187473878833476</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>RS_GCF_900771165.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>RS_GCF_900771165.1_2.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05148460720013947</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.219992224435667e-14</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9485153927997274</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>g__UBA1724</t>
         </is>
       </c>
     </row>
